--- a/excel/308 Indicativo - Trapassato Remoto.xlsx
+++ b/excel/308 Indicativo - Trapassato Remoto.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="209" uniqueCount="102">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="211" uniqueCount="104">
   <si>
     <t>类别名称</t>
   </si>
@@ -251,6 +251,9 @@
     <t>ebbi colto</t>
   </si>
   <si>
+    <t>cogliere al volo 领悟敏捷</t>
+  </si>
+  <si>
     <t>dare</t>
   </si>
   <si>
@@ -339,6 +342,9 @@
   </si>
   <si>
     <t>ebbero taciuto</t>
+  </si>
+  <si>
+    <t>Tutti tacciono, regna in camera un assoluto silenzio.大家都不讲活, 屋里一片肃静。</t>
   </si>
 </sst>
 </file>
@@ -1316,8 +1322,8 @@
   <sheetPr/>
   <dimension ref="A1:E52"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="190" zoomScaleNormal="190" topLeftCell="A12" workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
+    <sheetView tabSelected="1" zoomScale="190" zoomScaleNormal="190" topLeftCell="A27" workbookViewId="0">
+      <selection activeCell="E51" sqref="E51"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" outlineLevelCol="4"/>
@@ -1808,7 +1814,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="35" spans="1:4">
+    <row r="35" spans="1:5">
       <c r="A35" t="s">
         <v>5</v>
       </c>
@@ -1821,19 +1827,22 @@
       <c r="D35" t="s">
         <v>71</v>
       </c>
+      <c r="E35" t="s">
+        <v>72</v>
+      </c>
     </row>
     <row r="36" spans="1:4">
       <c r="A36" t="s">
         <v>5</v>
       </c>
       <c r="B36" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="C36" t="s">
         <v>19</v>
       </c>
       <c r="D36" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
     </row>
     <row r="37" spans="1:4">
@@ -1841,13 +1850,13 @@
         <v>5</v>
       </c>
       <c r="B37" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="C37" t="s">
         <v>28</v>
       </c>
       <c r="D37" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
     </row>
     <row r="38" spans="1:4">
@@ -1869,13 +1878,13 @@
         <v>5</v>
       </c>
       <c r="B39" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="C39" t="s">
         <v>10</v>
       </c>
       <c r="D39" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
     </row>
     <row r="40" spans="1:4">
@@ -1889,7 +1898,7 @@
         <v>19</v>
       </c>
       <c r="D40" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
     </row>
     <row r="41" spans="1:4">
@@ -1897,13 +1906,13 @@
         <v>5</v>
       </c>
       <c r="B41" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="C41" t="s">
         <v>7</v>
       </c>
       <c r="D41" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
     </row>
     <row r="42" spans="1:4">
@@ -1911,13 +1920,13 @@
         <v>5</v>
       </c>
       <c r="B42" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="C42" t="s">
         <v>44</v>
       </c>
       <c r="D42" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
     </row>
     <row r="43" spans="1:4">
@@ -1925,13 +1934,13 @@
         <v>5</v>
       </c>
       <c r="B43" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="C43" t="s">
         <v>7</v>
       </c>
       <c r="D43" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
     </row>
     <row r="44" spans="1:4">
@@ -1939,13 +1948,13 @@
         <v>5</v>
       </c>
       <c r="B44" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="C44" t="s">
         <v>19</v>
       </c>
       <c r="D44" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
     </row>
     <row r="45" spans="1:4">
@@ -1953,13 +1962,13 @@
         <v>5</v>
       </c>
       <c r="B45" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="C45" t="s">
         <v>28</v>
       </c>
       <c r="D45" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
     </row>
     <row r="46" spans="1:4">
@@ -1967,13 +1976,13 @@
         <v>5</v>
       </c>
       <c r="B46" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="C46" t="s">
         <v>44</v>
       </c>
       <c r="D46" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
     </row>
     <row r="47" spans="1:4">
@@ -1981,13 +1990,13 @@
         <v>5</v>
       </c>
       <c r="B47" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="C47" t="s">
         <v>28</v>
       </c>
       <c r="D47" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
     </row>
     <row r="48" spans="1:4">
@@ -1995,13 +2004,13 @@
         <v>5</v>
       </c>
       <c r="B48" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="C48" t="s">
         <v>10</v>
       </c>
       <c r="D48" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
     </row>
     <row r="49" spans="1:4">
@@ -2009,13 +2018,13 @@
         <v>5</v>
       </c>
       <c r="B49" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="C49" t="s">
         <v>28</v>
       </c>
       <c r="D49" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
     </row>
     <row r="50" spans="1:4">
@@ -2023,13 +2032,13 @@
         <v>5</v>
       </c>
       <c r="B50" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="C50" t="s">
         <v>31</v>
       </c>
       <c r="D50" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
     </row>
     <row r="51" spans="1:4">
@@ -2043,21 +2052,24 @@
         <v>7</v>
       </c>
       <c r="D51" t="s">
-        <v>99</v>
-      </c>
-    </row>
-    <row r="52" spans="1:4">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="52" spans="1:5">
       <c r="A52" t="s">
         <v>5</v>
       </c>
       <c r="B52" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="C52" t="s">
         <v>31</v>
       </c>
       <c r="D52" t="s">
-        <v>101</v>
+        <v>102</v>
+      </c>
+      <c r="E52" t="s">
+        <v>103</v>
       </c>
     </row>
   </sheetData>

--- a/excel/308 Indicativo - Trapassato Remoto.xlsx
+++ b/excel/308 Indicativo - Trapassato Remoto.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="211" uniqueCount="104">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="212" uniqueCount="105">
   <si>
     <t>类别名称</t>
   </si>
@@ -291,6 +291,9 @@
   </si>
   <si>
     <t>ebbi scoperto</t>
+  </si>
+  <si>
+    <t>scoprire un complotto发现一个阴谋</t>
   </si>
   <si>
     <t>cuocere</t>
@@ -1323,7 +1326,7 @@
   <dimension ref="A1:E52"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="190" zoomScaleNormal="190" topLeftCell="A27" workbookViewId="0">
-      <selection activeCell="E51" sqref="E51"/>
+      <selection activeCell="E43" sqref="E43"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" outlineLevelCol="4"/>
@@ -1929,7 +1932,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="43" spans="1:4">
+    <row r="43" spans="1:5">
       <c r="A43" t="s">
         <v>5</v>
       </c>
@@ -1942,19 +1945,22 @@
       <c r="D43" t="s">
         <v>85</v>
       </c>
+      <c r="E43" t="s">
+        <v>86</v>
+      </c>
     </row>
     <row r="44" spans="1:4">
       <c r="A44" t="s">
         <v>5</v>
       </c>
       <c r="B44" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="C44" t="s">
         <v>19</v>
       </c>
       <c r="D44" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
     </row>
     <row r="45" spans="1:4">
@@ -1962,13 +1968,13 @@
         <v>5</v>
       </c>
       <c r="B45" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="C45" t="s">
         <v>28</v>
       </c>
       <c r="D45" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
     </row>
     <row r="46" spans="1:4">
@@ -1976,13 +1982,13 @@
         <v>5</v>
       </c>
       <c r="B46" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="C46" t="s">
         <v>44</v>
       </c>
       <c r="D46" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
     </row>
     <row r="47" spans="1:4">
@@ -1990,13 +1996,13 @@
         <v>5</v>
       </c>
       <c r="B47" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="C47" t="s">
         <v>28</v>
       </c>
       <c r="D47" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
     </row>
     <row r="48" spans="1:4">
@@ -2004,13 +2010,13 @@
         <v>5</v>
       </c>
       <c r="B48" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="C48" t="s">
         <v>10</v>
       </c>
       <c r="D48" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
     </row>
     <row r="49" spans="1:4">
@@ -2018,13 +2024,13 @@
         <v>5</v>
       </c>
       <c r="B49" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="C49" t="s">
         <v>28</v>
       </c>
       <c r="D49" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
     </row>
     <row r="50" spans="1:4">
@@ -2032,13 +2038,13 @@
         <v>5</v>
       </c>
       <c r="B50" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="C50" t="s">
         <v>31</v>
       </c>
       <c r="D50" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
     </row>
     <row r="51" spans="1:4">
@@ -2052,7 +2058,7 @@
         <v>7</v>
       </c>
       <c r="D51" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
     </row>
     <row r="52" spans="1:5">
@@ -2060,16 +2066,16 @@
         <v>5</v>
       </c>
       <c r="B52" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="C52" t="s">
         <v>31</v>
       </c>
       <c r="D52" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="E52" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
     </row>
   </sheetData>
